--- a/CopyOfDataAsli.xlsx
+++ b/CopyOfDataAsli.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\PycharmProjects\Riset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7409FD64-4EFC-4175-A89E-52C15498E4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2292A7-DCE9-4692-84AC-795BF3FA423C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E2D2952-983A-4003-90AB-16A83415F266}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Data ke</t>
   </si>
   <si>
-    <t>L/ P</t>
-  </si>
-  <si>
     <t>Usia</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Kelamin</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16833689-316B-404A-87AF-42D41202A52B}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,7 @@
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>158</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>159</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>126</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>162</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>187</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>140</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>161</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
@@ -804,7 +804,7 @@
         <v>186</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -826,7 +826,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
         <v>3</v>
@@ -848,7 +848,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
         <v>4</v>
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7">
         <v>4</v>
@@ -892,7 +892,7 @@
         <v>156</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
         <v>4</v>
@@ -914,7 +914,7 @@
         <v>95</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
         <v>4</v>
@@ -936,7 +936,7 @@
         <v>179</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
         <v>5</v>
@@ -958,7 +958,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
         <v>5</v>
@@ -980,7 +980,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
         <v>5</v>
@@ -1002,7 +1002,7 @@
         <v>78</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="7">
         <v>7</v>
@@ -1024,7 +1024,7 @@
         <v>139</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
         <v>7</v>
@@ -1046,7 +1046,7 @@
         <v>79</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
         <v>7</v>
@@ -1068,7 +1068,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
         <v>8</v>
@@ -1090,7 +1090,7 @@
         <v>184</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
         <v>8</v>
@@ -1112,7 +1112,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="7">
         <v>9</v>
@@ -1134,7 +1134,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="7">
         <v>9</v>
@@ -1156,7 +1156,7 @@
         <v>94</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="7">
         <v>9</v>
@@ -1178,7 +1178,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="7">
         <v>10</v>
@@ -1200,7 +1200,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
         <v>10</v>
@@ -1222,7 +1222,7 @@
         <v>98</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7">
         <v>10</v>
@@ -1244,7 +1244,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="7">
         <v>10</v>
@@ -1266,7 +1266,7 @@
         <v>138</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="7">
         <v>11</v>
@@ -1288,7 +1288,7 @@
         <v>183</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="7">
         <v>11</v>
@@ -1310,7 +1310,7 @@
         <v>155</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="7">
         <v>11</v>
@@ -1332,7 +1332,7 @@
         <v>75</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="7">
         <v>12</v>
@@ -1354,7 +1354,7 @@
         <v>76</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7">
         <v>12</v>
@@ -1376,7 +1376,7 @@
         <v>137</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="7">
         <v>12</v>
@@ -1398,7 +1398,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="7">
         <v>13</v>
@@ -1420,7 +1420,7 @@
         <v>56</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="7">
         <v>13</v>
@@ -1442,7 +1442,7 @@
         <v>74</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="7">
         <v>14</v>
@@ -1464,7 +1464,7 @@
         <v>118</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="7">
         <v>14</v>
@@ -1486,7 +1486,7 @@
         <v>154</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="7">
         <v>14</v>
@@ -1508,7 +1508,7 @@
         <v>172</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" s="7">
         <v>14</v>
@@ -1530,7 +1530,7 @@
         <v>72</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="7">
         <v>14</v>
@@ -1552,7 +1552,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="7">
         <v>15</v>
@@ -1574,7 +1574,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="7">
         <v>15</v>
@@ -1596,7 +1596,7 @@
         <v>89</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="7">
         <v>16</v>
@@ -1618,7 +1618,7 @@
         <v>73</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="7">
         <v>16</v>
@@ -1640,7 +1640,7 @@
         <v>116</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="7">
         <v>16</v>
@@ -1662,7 +1662,7 @@
         <v>117</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="7">
         <v>16</v>
@@ -1684,7 +1684,7 @@
         <v>23</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" s="7">
         <v>17</v>
@@ -1706,7 +1706,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" s="7">
         <v>17</v>
@@ -1728,7 +1728,7 @@
         <v>149</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="7">
         <v>17</v>
@@ -1750,7 +1750,7 @@
         <v>107</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="7">
         <v>18</v>
@@ -1772,7 +1772,7 @@
         <v>153</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="7">
         <v>18</v>
@@ -1794,7 +1794,7 @@
         <v>92</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" s="7">
         <v>19</v>
@@ -1816,7 +1816,7 @@
         <v>152</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" s="7">
         <v>19</v>
@@ -1838,7 +1838,7 @@
         <v>164</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" s="7">
         <v>19</v>
@@ -1860,7 +1860,7 @@
         <v>22</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" s="7">
         <v>19</v>
@@ -1882,7 +1882,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="7">
         <v>19</v>
@@ -1904,7 +1904,7 @@
         <v>96</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="7">
         <v>20</v>
@@ -1926,7 +1926,7 @@
         <v>115</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="7">
         <v>20</v>
@@ -1948,7 +1948,7 @@
         <v>91</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="7">
         <v>22</v>
@@ -1970,7 +1970,7 @@
         <v>136</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65" s="7">
         <v>23</v>
@@ -1992,7 +1992,7 @@
         <v>20</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" s="7">
         <v>24</v>
@@ -2014,7 +2014,7 @@
         <v>51</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" s="7">
         <v>24</v>
@@ -2036,7 +2036,7 @@
         <v>19</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" s="7">
         <v>24</v>
@@ -2058,7 +2058,7 @@
         <v>50</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="7">
         <v>24</v>
@@ -2080,7 +2080,7 @@
         <v>122</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" s="7">
         <v>24</v>
